--- a/Quickbooks Reconciliation Bot/Data/Config.xlsx
+++ b/Quickbooks Reconciliation Bot/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\UiPath\Quickbooks Reconciliation Bot\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Quickbooks Reconciliation Bot\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F934AAD5-2412-4C18-B1B3-6077AE9774A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F681B29-C6B4-4469-A176-D619EC5D8CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="1700" windowWidth="14400" windowHeight="7360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
   <si>
     <t>Name</t>
   </si>
@@ -193,6 +193,18 @@
   </si>
   <si>
     <t>Low_Timeout</t>
+  </si>
+  <si>
+    <t>Client_Name</t>
+  </si>
+  <si>
+    <t>Shared</t>
+  </si>
+  <si>
+    <t>Root_Directory</t>
+  </si>
+  <si>
+    <t>Mail_Account</t>
   </si>
 </sst>
 </file>
@@ -587,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5"/>
@@ -648,6 +660,9 @@
     <row r="3" spans="1:26" ht="43.5">
       <c r="A3" s="2" t="s">
         <v>37</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>43</v>
@@ -901,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -956,6 +971,9 @@
       <c r="B2" t="s">
         <v>46</v>
       </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" t="s">
@@ -964,6 +982,9 @@
       <c r="B3" t="s">
         <v>47</v>
       </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
@@ -972,6 +993,9 @@
       <c r="B4" t="s">
         <v>49</v>
       </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
@@ -980,6 +1004,9 @@
       <c r="B5" t="s">
         <v>48</v>
       </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" s="2" t="s">
@@ -988,6 +1015,9 @@
       <c r="B6" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" s="2" t="s">
@@ -996,10 +1026,46 @@
       <c r="B7" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+    </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
